--- a/Mechanics/Harmonics-Constants.xlsx
+++ b/Mechanics/Harmonics-Constants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DSEP0001\Github\Vensim-Experiments\Mechanics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414AD475-DD8B-4C5B-8170-28772211E76D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4230E348-0844-4C7F-9EED-EC90E7FE6665}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26070" yWindow="2730" windowWidth="21600" windowHeight="12855" xr2:uid="{D7540C9F-3DE0-442B-AD9A-67D20305BF54}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{D7540C9F-3DE0-442B-AD9A-67D20305BF54}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>k</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>m</t>
+  </si>
+  <si>
+    <t>Time</t>
   </si>
 </sst>
 </file>
@@ -394,20 +397,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DCF8D25-9FDC-46A1-8D2C-FBE0FD7E50A2}">
-  <dimension ref="A2:B4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+    </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
